--- a/Output/Chock_Nacional_2013_68.xlsx
+++ b/Output/Chock_Nacional_2013_68.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseNacional\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55945C-4A3F-44EA-A69A-847C80372652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ChoqueDemanda" sheetId="1" r:id="rId1"/>
     <sheet name="Oferta" sheetId="2" r:id="rId2"/>
     <sheet name="Impact_VBP" sheetId="3" r:id="rId3"/>
-    <sheet name="Impactos" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Sectors" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Agg_Sectors" sheetId="5" r:id="rId5"/>
+    <sheet name="Impactos" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t>Exportações</t>
   </si>
@@ -262,10 +258,64 @@
     <t>VBP_Impact</t>
   </si>
   <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VA_Choque</t>
+  </si>
+  <si>
+    <t>Variação %</t>
+  </si>
+  <si>
+    <t>Agricultura, inclusive apoio à agricultura e a pós-colheita</t>
+  </si>
+  <si>
+    <t>Pecuária, inclusive apoio à Pecuária</t>
+  </si>
+  <si>
+    <t>Produção florestal, pesca e aquicultura</t>
+  </si>
+  <si>
+    <t>Indústrias extrativas</t>
+  </si>
+  <si>
+    <t>Indústrias de transformação</t>
+  </si>
+  <si>
+    <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos e descontaminação</t>
+  </si>
+  <si>
+    <t>Transporte, armazenagem e correio</t>
+  </si>
+  <si>
+    <t>Alojamento e alimentação</t>
+  </si>
+  <si>
+    <t>Informação e comunicação</t>
+  </si>
+  <si>
+    <t>Atividades financeiras, de seguros e serviços relacionados</t>
+  </si>
+  <si>
+    <t>Atividades profissionais, científicas e técnicas, administrativas e serviços complementares</t>
+  </si>
+  <si>
+    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
+  </si>
+  <si>
+    <t>Educação e saúde privadas</t>
+  </si>
+  <si>
+    <t>Artes, cultura, esporte e recreação e outras atividades de serviços</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
     <t>VBP</t>
   </si>
   <si>
-    <t>PIB</t>
+    <t>Impostos</t>
   </si>
   <si>
     <t>EOB</t>
@@ -284,20 +334,13 @@
   </si>
   <si>
     <t>Impactos</t>
-  </si>
-  <si>
-    <t>Variação %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +350,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -353,38 +389,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,27 +481,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,24 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,14 +690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.93599999999999994</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -799,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -813,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -822,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.97499999999999998</v>
+        <v>1.014</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -845,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -859,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -868,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -891,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.91</v>
+        <v>1.0297</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -937,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -951,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.95399999999999996</v>
+        <v>1.0297</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -960,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -974,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.95399999999999996</v>
+        <v>0.965</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -983,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -997,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1006,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1029,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1052,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1075,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.96250000000000002</v>
+        <v>0.945</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1098,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.96250000000000002</v>
+        <v>0.945</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1121,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.92149999999999999</v>
+        <v>0.9215</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1144,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1158,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.82500000000000007</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1167,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.82500000000000007</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1190,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1213,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1236,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1259,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.1459999999999999</v>
+        <v>0.9089</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1282,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.82250000000000001</v>
+        <v>0.85995</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1305,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1328,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1351,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1365,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1374,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1388,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1397,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.86749999999999994</v>
+        <v>0.851</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1420,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.86749999999999994</v>
+        <v>0.851</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1443,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.90400000000000003</v>
+        <v>0.87495</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1466,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1489,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1503,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1512,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1526,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1535,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1549,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.62050000000000005</v>
+        <v>0.8411500000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1558,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1595,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.91</v>
+        <v>0.76845</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1604,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1618,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>0.84365</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1627,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1641,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1650,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.8175</v>
+        <v>0.8679</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1673,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1687,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.96550000000000002</v>
+        <v>0.8802</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1696,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.67500000000000004</v>
+        <v>0.631</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1719,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1742,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1756,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.53400000000000003</v>
+        <v>0.6228</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1765,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1779,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.0615000000000001</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1788,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.54099999999999993</v>
+        <v>0.5549999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1811,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1825,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.623</v>
+        <v>0.73</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1834,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1848,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1857,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1871,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.9</v>
+        <v>0.7965</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1880,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1894,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.9345</v>
+        <v>0.927</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1903,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1917,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.085</v>
+        <v>0.92035</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1926,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -1940,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1949,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1972,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -1986,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1995,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2009,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2018,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2032,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2041,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2055,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2064,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -2078,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2087,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2101,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2110,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2133,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2147,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2156,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2170,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2179,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2193,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.1000000000000001</v>
+        <v>1.03685</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2202,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2216,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.1000000000000001</v>
+        <v>1.03685</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2225,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.50500000000000012</v>
+        <v>0.625</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2248,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2271,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2300,307 +2287,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7867499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7867499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.87495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8411500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2608,135 +2595,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.76845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.84365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8251499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9772999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.5549999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.92035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.01425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2744,116 +2731,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7625000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.99975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.03685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.03685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -2862,14 +2849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2883,1146 +2870,1146 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>260268.71016383299</v>
+        <v>264182.5608308405</v>
       </c>
       <c r="C2">
-        <v>265106.99999999988</v>
+        <v>265106.9999999999</v>
       </c>
       <c r="D2">
-        <v>-4838.2898361668922</v>
+        <v>-924.4391691593919</v>
       </c>
       <c r="E2">
-        <v>-1.8250328494407511E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.003487041719605262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>116079.96669040649</v>
+        <v>116796.0757063128</v>
       </c>
       <c r="C3">
         <v>115344</v>
       </c>
       <c r="D3">
-        <v>735.9666904064652</v>
+        <v>1452.075706312753</v>
       </c>
       <c r="E3">
-        <v>6.38062396315773E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01258908748017021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>27512.955647327039</v>
+        <v>27666.57790485445</v>
       </c>
       <c r="C4">
-        <v>29048.999999999989</v>
+        <v>29048.99999999999</v>
       </c>
       <c r="D4">
-        <v>-1536.0443526729471</v>
+        <v>-1382.422095145539</v>
       </c>
       <c r="E4">
-        <v>-5.2877701561945253E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04758931788170125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>18964.41197228392</v>
+        <v>19056.18571216174</v>
       </c>
       <c r="C5">
         <v>19448</v>
       </c>
       <c r="D5">
-        <v>-483.58802771608322</v>
+        <v>-391.8142878382641</v>
       </c>
       <c r="E5">
-        <v>-2.4865694555536982E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02014676510891938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>178461.33990633639</v>
+        <v>175783.2973078491</v>
       </c>
       <c r="C6">
-        <v>192839.99999999991</v>
+        <v>192839.9999999999</v>
       </c>
       <c r="D6">
-        <v>-14378.66009366349</v>
+        <v>-17056.70269215078</v>
       </c>
       <c r="E6">
-        <v>-7.4562643090974393E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.08845002433183359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>77551.347295948755</v>
+        <v>77555.26879150867</v>
       </c>
       <c r="C7">
-        <v>78123.999999999971</v>
+        <v>78123.99999999997</v>
       </c>
       <c r="D7">
-        <v>-572.65270405121555</v>
+        <v>-568.7312084912992</v>
       </c>
       <c r="E7">
-        <v>-7.3300484364755489E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.007279852650802563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>11425.508962614569</v>
+        <v>11450.28437809307</v>
       </c>
       <c r="C8">
         <v>11760</v>
       </c>
       <c r="D8">
-        <v>-334.49103738543448</v>
+        <v>-309.7156219069329</v>
       </c>
       <c r="E8">
-        <v>-2.8443115423931499E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02633636240705212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>210581.7547755767</v>
+        <v>211793.8936012967</v>
       </c>
       <c r="C9">
-        <v>208643.99999999991</v>
+        <v>208643.9999999999</v>
       </c>
       <c r="D9">
-        <v>1937.754775576788</v>
+        <v>3149.89360129679</v>
       </c>
       <c r="E9">
-        <v>9.2873735912692868E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01509697667460742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>50096.40530481132</v>
+        <v>51902.96629990476</v>
       </c>
       <c r="C10">
-        <v>52723.999999999978</v>
+        <v>52723.99999999998</v>
       </c>
       <c r="D10">
-        <v>-2627.5946951886581</v>
+        <v>-821.0337000952204</v>
       </c>
       <c r="E10">
-        <v>-4.9836785812697418E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01557229535117254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>214393.64559021761</v>
+        <v>225831.633091634</v>
       </c>
       <c r="C11">
-        <v>224396.99999999991</v>
+        <v>224396.9999999999</v>
       </c>
       <c r="D11">
-        <v>-10003.354409782331</v>
+        <v>1434.633091634052</v>
       </c>
       <c r="E11">
-        <v>-4.4578824181171477E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.00639328106718919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>53889.906959476109</v>
+        <v>56216.36735427027</v>
       </c>
       <c r="C12">
-        <v>62715.999999999993</v>
+        <v>62715.99999999999</v>
       </c>
       <c r="D12">
-        <v>-8826.093040523876</v>
+        <v>-6499.632645729718</v>
       </c>
       <c r="E12">
-        <v>-0.1407311218911263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1036359564661286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>14395.78031012057</v>
+        <v>14832.41117795984</v>
       </c>
       <c r="C13">
-        <v>15272.000000000009</v>
+        <v>15272.00000000001</v>
       </c>
       <c r="D13">
-        <v>-876.21968987943546</v>
+        <v>-439.5888220401703</v>
       </c>
       <c r="E13">
-        <v>-5.737425942112593E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02878397210844487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>32659.868651440371</v>
+        <v>36583.20000678834</v>
       </c>
       <c r="C14">
         <v>46634</v>
       </c>
       <c r="D14">
-        <v>-13974.131348559629</v>
+        <v>-10050.79999321166</v>
       </c>
       <c r="E14">
-        <v>-0.29965543055623861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2155251531760445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>40016.554618181799</v>
+        <v>45804.70879610634</v>
       </c>
       <c r="C15">
-        <v>60566.999999999993</v>
+        <v>60566.99999999999</v>
       </c>
       <c r="D15">
-        <v>-20550.44538181819</v>
+        <v>-14762.29120389365</v>
       </c>
       <c r="E15">
-        <v>-0.33930102831274772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2437348920021406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>26154.45046765394</v>
+        <v>29562.0546796182</v>
       </c>
       <c r="C16">
-        <v>38136.000000000007</v>
+        <v>38136.00000000001</v>
       </c>
       <c r="D16">
-        <v>-11981.54953234608</v>
+        <v>-8573.945320381816</v>
       </c>
       <c r="E16">
-        <v>-0.31417950315570781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2248255013735529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>23921.320283617501</v>
+        <v>24573.86350746903</v>
       </c>
       <c r="C17">
-        <v>25748.999999999989</v>
+        <v>25748.99999999999</v>
       </c>
       <c r="D17">
-        <v>-1827.679716382489</v>
+        <v>-1175.136492530964</v>
       </c>
       <c r="E17">
-        <v>-7.0980609591925481E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04563814099696939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>63627.170520728447</v>
+        <v>63416.71448507081</v>
       </c>
       <c r="C18">
-        <v>66502.000000000029</v>
+        <v>66502.00000000003</v>
       </c>
       <c r="D18">
-        <v>-2874.8294792715819</v>
+        <v>-3085.285514929223</v>
       </c>
       <c r="E18">
-        <v>-4.322921835841901E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04639387559666208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>20193.611679914022</v>
+        <v>19770.43597347567</v>
       </c>
       <c r="C19">
         <v>21287</v>
       </c>
       <c r="D19">
-        <v>-1093.388320085978</v>
+        <v>-1516.564026524327</v>
       </c>
       <c r="E19">
-        <v>-5.136413398252352E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07124367109147965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>285539.25305005268</v>
+        <v>280223.0810769036</v>
       </c>
       <c r="C20">
-        <v>319081.99999999988</v>
+        <v>319081.9999999999</v>
       </c>
       <c r="D20">
-        <v>-33542.746949947257</v>
+        <v>-38858.91892309632</v>
       </c>
       <c r="E20">
-        <v>-0.1051226548346421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1217834880159217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>29037.233979272922</v>
+        <v>28444.36173088933</v>
       </c>
       <c r="C21">
         <v>32241</v>
       </c>
       <c r="D21">
-        <v>-3203.7660207270778</v>
+        <v>-3796.63826911067</v>
       </c>
       <c r="E21">
-        <v>-9.9369313009121246E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1177580803669449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>118847.2099176733</v>
+        <v>119653.7655005529</v>
       </c>
       <c r="C22">
         <v>124304</v>
       </c>
       <c r="D22">
-        <v>-5456.790082326741</v>
+        <v>-4650.234499447164</v>
       </c>
       <c r="E22">
-        <v>-4.3898748892447062E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03741017585473648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>61070.765219224733</v>
+        <v>61364.95763907452</v>
       </c>
       <c r="C23">
         <v>63035</v>
       </c>
       <c r="D23">
-        <v>-1964.2347807752669</v>
+        <v>-1670.042360925479</v>
       </c>
       <c r="E23">
-        <v>-3.116101817681077E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02649389007575917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>34565.775132279872</v>
+        <v>33713.98327564417</v>
       </c>
       <c r="C24">
-        <v>35511.000000000007</v>
+        <v>35511.00000000001</v>
       </c>
       <c r="D24">
-        <v>-945.22486772014236</v>
+        <v>-1797.016724355846</v>
       </c>
       <c r="E24">
-        <v>-2.6617804841320768E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05060450914803429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>55183.272756018232</v>
+        <v>47939.92891135019</v>
       </c>
       <c r="C25">
         <v>50692</v>
       </c>
       <c r="D25">
-        <v>4491.272756018232</v>
+        <v>-2752.071088649813</v>
       </c>
       <c r="E25">
-        <v>8.8599241616393751E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05429004751538335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>89068.279388728275</v>
+        <v>89830.39324103046</v>
       </c>
       <c r="C26">
-        <v>97053.000000000029</v>
+        <v>97053.00000000003</v>
       </c>
       <c r="D26">
-        <v>-7984.720611271754</v>
+        <v>-7222.606758969574</v>
       </c>
       <c r="E26">
-        <v>-8.2271754724446963E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07441920145662238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>84575.065935206178</v>
+        <v>85118.51711170303</v>
       </c>
       <c r="C27">
-        <v>86779.999999999971</v>
+        <v>86779.99999999997</v>
       </c>
       <c r="D27">
-        <v>-2204.9340647937929</v>
+        <v>-1661.482888296945</v>
       </c>
       <c r="E27">
-        <v>-2.5408320636019749E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01914591943186155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>100143.4319399252</v>
+        <v>100165.9580324259</v>
       </c>
       <c r="C28">
         <v>104408</v>
       </c>
       <c r="D28">
-        <v>-4264.5680600748601</v>
+        <v>-4242.041967574114</v>
       </c>
       <c r="E28">
-        <v>-4.084522316369301E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04062947252676149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>47467.585554122401</v>
+        <v>47645.60493993432</v>
       </c>
       <c r="C29">
         <v>49609</v>
       </c>
       <c r="D29">
-        <v>-2141.4144458775991</v>
+        <v>-1963.395060065675</v>
       </c>
       <c r="E29">
-        <v>-4.3165845831957893E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03957739644148593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>87538.822926159628</v>
+        <v>88349.02516466487</v>
       </c>
       <c r="C30">
         <v>92851</v>
       </c>
       <c r="D30">
-        <v>-5312.177073840372</v>
+        <v>-4501.974835335132</v>
       </c>
       <c r="E30">
-        <v>-5.7211845578834609E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04848601345526846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>82469.681194481294</v>
+        <v>81728.64039418647</v>
       </c>
       <c r="C31">
-        <v>88197.000000000015</v>
+        <v>88197.00000000001</v>
       </c>
       <c r="D31">
-        <v>-5727.3188055187202</v>
+        <v>-6468.359605813544</v>
       </c>
       <c r="E31">
-        <v>-6.4937796132733761E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07333990505134577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>67122.391123953246</v>
+        <v>66543.96664331686</v>
       </c>
       <c r="C32">
         <v>71166</v>
       </c>
       <c r="D32">
-        <v>-4043.6088760467542</v>
+        <v>-4622.03335668314</v>
       </c>
       <c r="E32">
-        <v>-5.6819392350936603E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06494721294836213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>129714.107336808</v>
+        <v>129467.160288015</v>
       </c>
       <c r="C33">
         <v>131325</v>
       </c>
       <c r="D33">
-        <v>-1610.892663192077</v>
+        <v>-1857.839711985027</v>
       </c>
       <c r="E33">
-        <v>-1.2266458505174769E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01414688529971465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>168846.74624835289</v>
+        <v>164709.1843221131</v>
       </c>
       <c r="C34">
-        <v>194474.00000000009</v>
+        <v>194474.0000000001</v>
       </c>
       <c r="D34">
-        <v>-25627.253751647131</v>
+        <v>-29764.81567788695</v>
       </c>
       <c r="E34">
-        <v>-0.13177727486269181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.153052930869355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>81035.051508137083</v>
+        <v>80224.90568637643</v>
       </c>
       <c r="C35">
         <v>89100</v>
       </c>
       <c r="D35">
-        <v>-8064.9484918629169</v>
+        <v>-8875.094313623573</v>
       </c>
       <c r="E35">
-        <v>-9.0515695756037226E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.09960824145481002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>39648.025847204437</v>
+        <v>39157.03352291707</v>
       </c>
       <c r="C36">
         <v>42779</v>
       </c>
       <c r="D36">
-        <v>-3130.974152795563</v>
+        <v>-3621.966477082933</v>
       </c>
       <c r="E36">
-        <v>-7.3189512442917395E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.08466692716246133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>52879.382207101298</v>
+        <v>60852.52360133799</v>
       </c>
       <c r="C37">
-        <v>67070.999999999985</v>
+        <v>67070.99999999999</v>
       </c>
       <c r="D37">
-        <v>-14191.617792898691</v>
+        <v>-6218.476398661995</v>
       </c>
       <c r="E37">
-        <v>-0.21159096767453431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.09271483053274882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>52666.602267305083</v>
+        <v>52465.29553828311</v>
       </c>
       <c r="C38">
-        <v>55015.999999999993</v>
+        <v>55015.99999999999</v>
       </c>
       <c r="D38">
-        <v>-2349.3977326949171</v>
+        <v>-2550.704461716879</v>
       </c>
       <c r="E38">
-        <v>-4.2703899460064657E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04636295735271339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>168227.36750613991</v>
+        <v>156694.5390294332</v>
       </c>
       <c r="C39">
-        <v>180886.00000000009</v>
+        <v>180886.0000000001</v>
       </c>
       <c r="D39">
-        <v>-12658.632493860179</v>
+        <v>-24191.46097056687</v>
       </c>
       <c r="E39">
-        <v>-6.9981272701370875E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1337387137233775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>50118.55577146382</v>
+        <v>51810.8774470619</v>
       </c>
       <c r="C40">
         <v>56737</v>
       </c>
       <c r="D40">
-        <v>-6618.4442285361802</v>
+        <v>-4926.122552938104</v>
       </c>
       <c r="E40">
-        <v>-0.1166512897850817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.08682381079257107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>625994.31690925546</v>
+        <v>626056.5614316447</v>
       </c>
       <c r="C41">
-        <v>627986.00000000012</v>
+        <v>627986.0000000001</v>
       </c>
       <c r="D41">
-        <v>-1991.683090744657</v>
+        <v>-1929.438568355399</v>
       </c>
       <c r="E41">
-        <v>-3.171540592855026E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.003072422901713412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>123570.1401341132</v>
+        <v>126508.1600590579</v>
       </c>
       <c r="C42">
         <v>139729</v>
       </c>
       <c r="D42">
-        <v>-16158.85986588678</v>
+        <v>-13220.83994094211</v>
       </c>
       <c r="E42">
-        <v>-0.11564428190201589</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0946177238865383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>785444.19371758704</v>
+        <v>757042.1092233444</v>
       </c>
       <c r="C43">
-        <v>821329.00000000023</v>
+        <v>821329.0000000002</v>
       </c>
       <c r="D43">
-        <v>-35884.806282413192</v>
+        <v>-64286.89077665587</v>
       </c>
       <c r="E43">
-        <v>-4.3691147253309193E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07827178971722154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>248953.9305467555</v>
+        <v>244179.4715020554</v>
       </c>
       <c r="C44">
-        <v>290077.99999999988</v>
+        <v>290077.9999999999</v>
       </c>
       <c r="D44">
-        <v>-41124.069453244483</v>
+        <v>-45898.52849794459</v>
       </c>
       <c r="E44">
-        <v>-0.14176900507189269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1582282299862265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>15343.628354804719</v>
+        <v>15005.00806327894</v>
       </c>
       <c r="C45">
         <v>16016</v>
       </c>
       <c r="D45">
-        <v>-672.37164519528051</v>
+        <v>-1010.991936721059</v>
       </c>
       <c r="E45">
-        <v>-4.1981246578126907E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06312387217289328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>30278.966573268612</v>
+        <v>30610.88671242064</v>
       </c>
       <c r="C46">
-        <v>35429.999999999993</v>
+        <v>35429.99999999999</v>
       </c>
       <c r="D46">
-        <v>-5151.0334267313774</v>
+        <v>-4819.113287579341</v>
       </c>
       <c r="E46">
-        <v>-0.14538621018152359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1360178743319035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>96877.580609887271</v>
+        <v>94752.59748196308</v>
       </c>
       <c r="C47">
         <v>100401</v>
       </c>
       <c r="D47">
-        <v>-3523.4193901127578</v>
+        <v>-5648.40251803695</v>
       </c>
       <c r="E47">
-        <v>-3.5093469090076372E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05625842888055844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>18221.229802426918</v>
+        <v>18205.25730047265</v>
       </c>
       <c r="C48">
         <v>21312</v>
       </c>
       <c r="D48">
-        <v>-3090.770197573082</v>
+        <v>-3106.742699527353</v>
       </c>
       <c r="E48">
-        <v>-0.1450248778891273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1457743383787234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>131103.6598320402</v>
+        <v>147854.3496006199</v>
       </c>
       <c r="C49">
         <v>192196</v>
       </c>
       <c r="D49">
-        <v>-61092.340167959803</v>
+        <v>-44341.6503993801</v>
       </c>
       <c r="E49">
-        <v>-0.31786478474036822</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2307105787809325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>21294.198708884851</v>
+        <v>18791.78531482826</v>
       </c>
       <c r="C50">
         <v>21590</v>
       </c>
       <c r="D50">
-        <v>-295.80129111514537</v>
+        <v>-2798.214685171733</v>
       </c>
       <c r="E50">
-        <v>-1.3700847203110029E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1296069793965602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>36095.386979314673</v>
+        <v>35590.45478684454</v>
       </c>
       <c r="C51">
         <v>38494</v>
       </c>
       <c r="D51">
-        <v>-2398.6130206853268</v>
+        <v>-2903.545213155463</v>
       </c>
       <c r="E51">
-        <v>-6.2311347760308798E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07542851387633041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>150493.7756039103</v>
+        <v>149535.9323474042</v>
       </c>
       <c r="C52">
         <v>160382</v>
       </c>
       <c r="D52">
-        <v>-9888.2243960897613</v>
+        <v>-10846.06765259581</v>
       </c>
       <c r="E52">
-        <v>-6.1654203065741542E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06762646464438533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>99753.795323134385</v>
+        <v>99366.38095637447</v>
       </c>
       <c r="C53">
         <v>101707</v>
       </c>
       <c r="D53">
-        <v>-1953.2046768656151</v>
+        <v>-2340.619043625527</v>
       </c>
       <c r="E53">
-        <v>-1.9204230553114481E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02301335250892788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>432823.41843349248</v>
+        <v>436917.8563714557</v>
       </c>
       <c r="C54">
         <v>444766</v>
       </c>
       <c r="D54">
-        <v>-11942.581566507521</v>
+        <v>-7848.143628544291</v>
       </c>
       <c r="E54">
-        <v>-2.6851381550090429E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01764555660402164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>394566.80389490712</v>
+        <v>452369.8795757896</v>
       </c>
       <c r="C55">
-        <v>457749.00000000012</v>
+        <v>457749.0000000001</v>
       </c>
       <c r="D55">
-        <v>-63182.196105093048</v>
+        <v>-5379.12042421056</v>
       </c>
       <c r="E55">
-        <v>-0.13802803742901251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01175124451219021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>153035.70354511979</v>
+        <v>151195.1214301496</v>
       </c>
       <c r="C56">
         <v>160406</v>
       </c>
       <c r="D56">
-        <v>-7370.2964548801829</v>
+        <v>-9210.878569850378</v>
       </c>
       <c r="E56">
-        <v>-4.5947760400983653E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05742228202093674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>67492.29607817356</v>
+        <v>66989.93789690938</v>
       </c>
       <c r="C57">
-        <v>69319.000000000015</v>
+        <v>69319.00000000001</v>
       </c>
       <c r="D57">
-        <v>-1826.703921826454</v>
+        <v>-2329.062103090633</v>
       </c>
       <c r="E57">
-        <v>-2.6352138978151071E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03359918785745081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>75604.12105808896</v>
+        <v>74870.84875402873</v>
       </c>
       <c r="C58">
         <v>80404</v>
       </c>
       <c r="D58">
-        <v>-4799.8789419110399</v>
+        <v>-5533.151245971269</v>
       </c>
       <c r="E58">
-        <v>-5.9697016838851799E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06881686540434889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>42853.353072559643</v>
+        <v>42284.36984505865</v>
       </c>
       <c r="C59">
         <v>45210</v>
       </c>
       <c r="D59">
-        <v>-2356.6469274403571</v>
+        <v>-2925.630154941355</v>
       </c>
       <c r="E59">
-        <v>-5.212667390932E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06471201404426796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>176291.7187384112</v>
+        <v>174201.3435406862</v>
       </c>
       <c r="C60">
         <v>182232</v>
       </c>
       <c r="D60">
-        <v>-5940.2812615887669</v>
+        <v>-8030.656459313817</v>
       </c>
       <c r="E60">
-        <v>-3.2597355357943537E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04406831105027557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>31793.200727281092</v>
+        <v>31488.89651310806</v>
       </c>
       <c r="C61">
-        <v>33105.000000000007</v>
+        <v>33105.00000000001</v>
       </c>
       <c r="D61">
-        <v>-1311.799272718916</v>
+        <v>-1616.103486891949</v>
       </c>
       <c r="E61">
-        <v>-3.9625412255517758E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04881750451267024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>627032.62926805438</v>
+        <v>624774.6555101506</v>
       </c>
       <c r="C62">
-        <v>628193.99999999965</v>
+        <v>628193.9999999997</v>
       </c>
       <c r="D62">
-        <v>-1161.370731945266</v>
+        <v>-3419.344489849056</v>
       </c>
       <c r="E62">
-        <v>-1.8487453429120091E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.005443134588756114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>252249.48890258701</v>
+        <v>252230.3544777425</v>
       </c>
       <c r="C63">
         <v>252328</v>
       </c>
       <c r="D63">
-        <v>-78.511097412963863</v>
+        <v>-97.64552225751686</v>
       </c>
       <c r="E63">
-        <v>-3.1114698889129968E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0003869785448206971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>83167.770140756518</v>
+        <v>71408.49665981978</v>
       </c>
       <c r="C64">
         <v>83639</v>
       </c>
       <c r="D64">
-        <v>-471.22985924348183</v>
+        <v>-12230.50334018022</v>
       </c>
       <c r="E64">
-        <v>-5.6340924597793104E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1462296696538722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>146377.79203709701</v>
+        <v>146277.0949816219</v>
       </c>
       <c r="C65">
         <v>146225</v>
       </c>
       <c r="D65">
-        <v>152.7920370970096</v>
+        <v>52.09498162189266</v>
       </c>
       <c r="E65">
-        <v>1.0449104947649829E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.000356265902697163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66">
-        <v>168039.68682945339</v>
+        <v>160766.5388871901</v>
       </c>
       <c r="C66">
         <v>156557</v>
       </c>
       <c r="D66">
-        <v>11482.686829453451</v>
+        <v>4209.538887190109</v>
       </c>
       <c r="E66">
-        <v>7.3345087281012369E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.02688821890551115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <v>22138.360700694499</v>
+        <v>24201.2336870539</v>
       </c>
       <c r="C67">
         <v>31169</v>
       </c>
       <c r="D67">
-        <v>-9030.6392993054978</v>
+        <v>-6967.766312946103</v>
       </c>
       <c r="E67">
-        <v>-0.28973144147407681</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2235479583222466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>112326.1614977882</v>
+        <v>112110.3036087294</v>
       </c>
       <c r="C68">
         <v>131179</v>
       </c>
       <c r="D68">
-        <v>-18852.838502211849</v>
+        <v>-19068.69639127061</v>
       </c>
       <c r="E68">
-        <v>-0.14371841912357811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1453639408081371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -4033,7 +4020,7 @@
         <v>53656</v>
       </c>
       <c r="D69">
-        <v>-8048.4000000000005</v>
+        <v>-8048.400000000001</v>
       </c>
       <c r="E69">
         <v>-0.15</v>
@@ -4045,22 +4032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
@@ -4070,83 +4049,1347 @@
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>157113</v>
+      </c>
+      <c r="C2">
+        <v>-547.8595856923414</v>
+      </c>
+      <c r="D2">
+        <v>-0.3487041719605261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>61446</v>
+      </c>
+      <c r="C3">
+        <v>773.5490693065389</v>
+      </c>
+      <c r="D3">
+        <v>1.258908748017021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>21731</v>
+      </c>
+      <c r="C4">
+        <v>-1034.163466887249</v>
+      </c>
+      <c r="D4">
+        <v>-4.758931788170123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8866</v>
+      </c>
+      <c r="C5">
+        <v>-178.6212194556792</v>
+      </c>
+      <c r="D5">
+        <v>-2.014676510891938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>124152</v>
+      </c>
+      <c r="C6">
+        <v>-10981.2474208458</v>
+      </c>
+      <c r="D6">
+        <v>-8.845002433183353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>53671</v>
+      </c>
+      <c r="C7">
+        <v>-390.7169716212242</v>
+      </c>
+      <c r="D7">
+        <v>-0.727985265080256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2029</v>
+      </c>
+      <c r="C8">
+        <v>-53.43647932390876</v>
+      </c>
+      <c r="D8">
+        <v>-2.633636240705212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>31035</v>
+      </c>
+      <c r="C9">
+        <v>468.5346710964412</v>
+      </c>
+      <c r="D9">
+        <v>1.509697667460742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>8479</v>
+      </c>
+      <c r="C10">
+        <v>-132.0374922825919</v>
+      </c>
+      <c r="D10">
+        <v>-1.557229535117253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>44776</v>
+      </c>
+      <c r="C11">
+        <v>286.2655530644631</v>
+      </c>
+      <c r="D11">
+        <v>0.6393281067189187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>19106</v>
+      </c>
+      <c r="C12">
+        <v>-1980.068584241852</v>
+      </c>
+      <c r="D12">
+        <v>-10.36359564661286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4757</v>
+      </c>
+      <c r="C13">
+        <v>-136.9253553198723</v>
+      </c>
+      <c r="D13">
+        <v>-2.878397210844489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13652</v>
+      </c>
+      <c r="C14">
+        <v>-2942.349391159359</v>
+      </c>
+      <c r="D14">
+        <v>-21.55251531760445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>24872</v>
+      </c>
+      <c r="C15">
+        <v>-6062.17423387724</v>
+      </c>
+      <c r="D15">
+        <v>-24.37348920021406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>13452</v>
+      </c>
+      <c r="C16">
+        <v>-3024.352644477034</v>
+      </c>
+      <c r="D16">
+        <v>-22.4825501373553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>10169</v>
+      </c>
+      <c r="C17">
+        <v>-464.0942557981816</v>
+      </c>
+      <c r="D17">
+        <v>-4.563814099696939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>17282</v>
+      </c>
+      <c r="C18">
+        <v>-801.7789580615142</v>
+      </c>
+      <c r="D18">
+        <v>-4.639387559666209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>9575</v>
+      </c>
+      <c r="C19">
+        <v>-682.1581507009176</v>
+      </c>
+      <c r="D19">
+        <v>-7.124367109147965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>-28223</v>
+      </c>
+      <c r="C20">
+        <v>3437.095382273358</v>
+      </c>
+      <c r="D20">
+        <v>-12.17834880159217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>6201</v>
+      </c>
+      <c r="C21">
+        <v>-730.2178563554253</v>
+      </c>
+      <c r="D21">
+        <v>-11.77580803669449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>15667</v>
+      </c>
+      <c r="C22">
+        <v>-586.1052251161565</v>
+      </c>
+      <c r="D22">
+        <v>-3.741017585473648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>12980</v>
+      </c>
+      <c r="C23">
+        <v>-343.8906931833541</v>
+      </c>
+      <c r="D23">
+        <v>-2.649389007575917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>8160</v>
+      </c>
+      <c r="C24">
+        <v>-412.93279464796</v>
+      </c>
+      <c r="D24">
+        <v>-5.060450914803431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>22533</v>
+      </c>
+      <c r="C25">
+        <v>-1223.317640664133</v>
+      </c>
+      <c r="D25">
+        <v>-5.429004751538335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>25724</v>
+      </c>
+      <c r="C26">
+        <v>-1914.359538270155</v>
+      </c>
+      <c r="D26">
+        <v>-7.441920145662239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>29101</v>
+      </c>
+      <c r="C27">
+        <v>-557.1654013866029</v>
+      </c>
+      <c r="D27">
+        <v>-1.914591943186155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>24848</v>
+      </c>
+      <c r="C28">
+        <v>-1009.56113334497</v>
+      </c>
+      <c r="D28">
+        <v>-4.06294725267615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>9202</v>
+      </c>
+      <c r="C29">
+        <v>-364.1912020545535</v>
+      </c>
+      <c r="D29">
+        <v>-3.957739644148592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>34733</v>
+      </c>
+      <c r="C30">
+        <v>-1684.064705341839</v>
+      </c>
+      <c r="D30">
+        <v>-4.848601345526846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>17941</v>
+      </c>
+      <c r="C31">
+        <v>-1315.791236526195</v>
+      </c>
+      <c r="D31">
+        <v>-7.333990505134579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>18271</v>
+      </c>
+      <c r="C32">
+        <v>-1186.650527779525</v>
+      </c>
+      <c r="D32">
+        <v>-6.494721294836213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>38768</v>
+      </c>
+      <c r="C33">
+        <v>-548.4464492993377</v>
+      </c>
+      <c r="D33">
+        <v>-1.414688529971465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>35485</v>
+      </c>
+      <c r="C34">
+        <v>-5431.083251899062</v>
+      </c>
+      <c r="D34">
+        <v>-15.3052930869355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>25612</v>
+      </c>
+      <c r="C35">
+        <v>-2551.166280140594</v>
+      </c>
+      <c r="D35">
+        <v>-9.960824145481002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>11836</v>
+      </c>
+      <c r="C36">
+        <v>-1002.117749894892</v>
+      </c>
+      <c r="D36">
+        <v>-8.466692716246133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>30673</v>
+      </c>
+      <c r="C37">
+        <v>-2843.841996931004</v>
+      </c>
+      <c r="D37">
+        <v>-9.27148305327488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>22066</v>
+      </c>
+      <c r="C38">
+        <v>-1023.045016944974</v>
+      </c>
+      <c r="D38">
+        <v>-4.636295735271339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>57032</v>
+      </c>
+      <c r="C39">
+        <v>-7627.386321071668</v>
+      </c>
+      <c r="D39">
+        <v>-13.37387137233775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>35786</v>
+      </c>
+      <c r="C40">
+        <v>-3107.076893022948</v>
+      </c>
+      <c r="D40">
+        <v>-8.682381079257105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>291541</v>
+      </c>
+      <c r="C41">
+        <v>-895.7372451884301</v>
+      </c>
+      <c r="D41">
+        <v>-0.3072422901713412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>84636</v>
+      </c>
+      <c r="C42">
+        <v>-8008.065678861055</v>
+      </c>
+      <c r="D42">
+        <v>-9.461772388653829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>529344</v>
+      </c>
+      <c r="C43">
+        <v>-41432.70225607293</v>
+      </c>
+      <c r="D43">
+        <v>-7.827178971722157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>130316</v>
+      </c>
+      <c r="C44">
+        <v>-20619.67001888508</v>
+      </c>
+      <c r="D44">
+        <v>-15.82282299862264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>6023</v>
+      </c>
+      <c r="C45">
+        <v>-380.1950820973362</v>
+      </c>
+      <c r="D45">
+        <v>-6.312387217289328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>8412</v>
+      </c>
+      <c r="C46">
+        <v>-1144.182358879972</v>
+      </c>
+      <c r="D46">
+        <v>-13.60178743319035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>58670</v>
+      </c>
+      <c r="C47">
+        <v>-3300.682022422365</v>
+      </c>
+      <c r="D47">
+        <v>-5.625842888055846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>12445</v>
+      </c>
+      <c r="C48">
+        <v>-1814.161641123213</v>
+      </c>
+      <c r="D48">
+        <v>-14.57743383787234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>95622</v>
+      </c>
+      <c r="C49">
+        <v>-22061.00696419033</v>
+      </c>
+      <c r="D49">
+        <v>-23.07105787809325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>9218</v>
+      </c>
+      <c r="C50">
+        <v>-1194.717136077491</v>
+      </c>
+      <c r="D50">
+        <v>-12.96069793965601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>17347</v>
+      </c>
+      <c r="C51">
+        <v>-1308.458430212704</v>
+      </c>
+      <c r="D51">
+        <v>-7.542851387633041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>62629</v>
+      </c>
+      <c r="C52">
+        <v>-4235.37785421321</v>
+      </c>
+      <c r="D52">
+        <v>-6.762646464438536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>68315</v>
+      </c>
+      <c r="C53">
+        <v>-1572.157176647408</v>
+      </c>
+      <c r="D53">
+        <v>-2.301335250892788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>266718</v>
+      </c>
+      <c r="C54">
+        <v>-4706.387566311444</v>
+      </c>
+      <c r="D54">
+        <v>-1.764555660402164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>421806</v>
+      </c>
+      <c r="C55">
+        <v>-4956.745442708907</v>
+      </c>
+      <c r="D55">
+        <v>-1.175124451219022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>109657</v>
+      </c>
+      <c r="C56">
+        <v>-6296.755179569859</v>
+      </c>
+      <c r="D56">
+        <v>-5.742228202093673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>43526</v>
+      </c>
+      <c r="C57">
+        <v>-1462.438250683404</v>
+      </c>
+      <c r="D57">
+        <v>-3.359918785745081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>25762</v>
+      </c>
+      <c r="C58">
+        <v>-1772.860086546836</v>
+      </c>
+      <c r="D58">
+        <v>-6.881686540434889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>30986</v>
+      </c>
+      <c r="C59">
+        <v>-2005.166467175687</v>
+      </c>
+      <c r="D59">
+        <v>-6.471201404426797</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>127086</v>
+      </c>
+      <c r="C60">
+        <v>-5600.465378135321</v>
+      </c>
+      <c r="D60">
+        <v>-4.406831105027557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>27194</v>
+      </c>
+      <c r="C61">
+        <v>-1327.543217717555</v>
+      </c>
+      <c r="D61">
+        <v>-4.881750451267025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>447604</v>
+      </c>
+      <c r="C62">
+        <v>-2436.36881446559</v>
+      </c>
+      <c r="D62">
+        <v>-0.5443134588756111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>201645</v>
+      </c>
+      <c r="C63">
+        <v>-78.03228867036947</v>
+      </c>
+      <c r="D63">
+        <v>-0.03869785448206971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>56703</v>
+      </c>
+      <c r="C64">
+        <v>-8291.660958383518</v>
+      </c>
+      <c r="D64">
+        <v>-14.62296696538722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>96938</v>
+      </c>
+      <c r="C65">
+        <v>34.53570407565758</v>
+      </c>
+      <c r="D65">
+        <v>0.0356265902697163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>92206</v>
+      </c>
+      <c r="C66">
+        <v>2479.255112401561</v>
+      </c>
+      <c r="D66">
+        <v>2.688821890551115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>17629</v>
+      </c>
+      <c r="C67">
+        <v>-3940.926957262885</v>
+      </c>
+      <c r="D67">
+        <v>-22.35479583222466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>64403</v>
+      </c>
+      <c r="C68">
+        <v>-9361.873879866451</v>
+      </c>
+      <c r="D68">
+        <v>-14.53639408081371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>53656</v>
+      </c>
+      <c r="C69">
+        <v>-8048.400000000001</v>
+      </c>
+      <c r="D69">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>157113</v>
+      </c>
+      <c r="C2">
+        <v>-547.8595856923414</v>
+      </c>
+      <c r="D2">
+        <v>-0.3487041719605261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>61446</v>
+      </c>
+      <c r="C3">
+        <v>773.5490693065389</v>
+      </c>
+      <c r="D3">
+        <v>1.258908748017021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>21731</v>
+      </c>
+      <c r="C4">
+        <v>-1034.163466887249</v>
+      </c>
+      <c r="D4">
+        <v>-4.758931788170123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>188718</v>
+      </c>
+      <c r="C5">
+        <v>-11604.02209124661</v>
+      </c>
+      <c r="D5">
+        <v>-6.148868730723413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>558733</v>
+      </c>
+      <c r="C6">
+        <v>-36761.99215926504</v>
+      </c>
+      <c r="D6">
+        <v>-6.579527638293252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>92818</v>
+      </c>
+      <c r="C7">
+        <v>-10734.46321409462</v>
+      </c>
+      <c r="D7">
+        <v>-11.56506627388504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>291541</v>
+      </c>
+      <c r="C8">
+        <v>-895.7372451884301</v>
+      </c>
+      <c r="D8">
+        <v>-0.3072422901713412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>613980</v>
+      </c>
+      <c r="C9">
+        <v>-49440.76793493399</v>
+      </c>
+      <c r="D9">
+        <v>-8.052504631247597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>203421</v>
+      </c>
+      <c r="C10">
+        <v>-25444.72948228475</v>
+      </c>
+      <c r="D10">
+        <v>-12.50840841520037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>108067</v>
+      </c>
+      <c r="C11">
+        <v>-23875.16860531354</v>
+      </c>
+      <c r="D11">
+        <v>-22.09293179723092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>157509</v>
+      </c>
+      <c r="C12">
+        <v>-8310.710597150814</v>
+      </c>
+      <c r="D12">
+        <v>-5.276340143833568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>266718</v>
+      </c>
+      <c r="C13">
+        <v>-4706.387566311444</v>
+      </c>
+      <c r="D13">
+        <v>-1.764555660402164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>421806</v>
+      </c>
+      <c r="C14">
+        <v>-4956.745442708907</v>
+      </c>
+      <c r="D14">
+        <v>-1.175124451219022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>364211</v>
+      </c>
+      <c r="C15">
+        <v>-18465.22857982866</v>
+      </c>
+      <c r="D15">
+        <v>-5.069926108719577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>746187</v>
+      </c>
+      <c r="C16">
+        <v>-2479.865399060302</v>
+      </c>
+      <c r="D16">
+        <v>-0.332338327933923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>148909</v>
+      </c>
+      <c r="C17">
+        <v>-5812.405845981957</v>
+      </c>
+      <c r="D17">
+        <v>-3.903327432178013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>82032</v>
+      </c>
+      <c r="C18">
+        <v>-13302.80083712934</v>
+      </c>
+      <c r="D18">
+        <v>-16.21659942111534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>53656</v>
+      </c>
+      <c r="C19">
+        <v>-8048.400000000001</v>
+      </c>
+      <c r="D19">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>4538596</v>
+      </c>
+      <c r="C2">
         <v>9089405</v>
       </c>
-      <c r="C2" s="2">
-        <v>4538596</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2">
+        <v>372606.8687922741</v>
+      </c>
+      <c r="E2">
         <v>1711034</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2">
         <v>460817</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2">
         <v>2307327</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2">
         <v>102537434</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-548620.77537005302</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-257845.99543612759</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-121569.1459255864</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-29170.09921096584</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-103409.2774624962</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-7004032.3142418899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>-225647.8989837714</v>
+      </c>
+      <c r="C3">
+        <v>-519329.3107777682</v>
+      </c>
+      <c r="D3">
+        <v>-26108.61807881592</v>
+      </c>
+      <c r="E3">
+        <v>-77586.38145667264</v>
+      </c>
+      <c r="F3">
+        <v>-27495.15084775817</v>
+      </c>
+      <c r="G3">
+        <v>-116464.4343310758</v>
+      </c>
+      <c r="H3">
+        <v>-7037167.772237029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-6.0358271566736548</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-5.6811841246968804</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-7.1050105331388176</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-6.330083137333439</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-4.4817781555235232</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-6.8307076167342844</v>
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>-4.971755560172605</v>
+      </c>
+      <c r="C4">
+        <v>-5.713567728336103</v>
+      </c>
+      <c r="D4">
+        <v>-7.007014702504398</v>
+      </c>
+      <c r="E4">
+        <v>-4.53447339191814</v>
+      </c>
+      <c r="F4">
+        <v>-5.966609488746764</v>
+      </c>
+      <c r="G4">
+        <v>-5.047591188031685</v>
+      </c>
+      <c r="H4">
+        <v>-6.863023090900665</v>
       </c>
     </row>
   </sheetData>
